--- a/report_manager/apps/templates/ClinicalData_template.xlsx
+++ b/report_manager/apps/templates/ClinicalData_template.xlsx
@@ -1,187 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plh450/Clinical_Proteomics/CKG/clinicalknowledgegraph/report_manager/apps/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E680A-BE38-AF4C-A7A6-3441C18FE901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5518FD5-FC72-3449-B7A0-1257EE5F11B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82380" yWindow="-5280" windowWidth="28700" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
+    <t>subject external_id</t>
+  </si>
+  <si>
+    <t>tissue id</t>
+  </si>
+  <si>
+    <t>intervention id</t>
+  </si>
+  <si>
+    <t>disease id</t>
+  </si>
+  <si>
+    <t>biological_sample external_id</t>
+  </si>
+  <si>
+    <t>biological_sample quantity</t>
+  </si>
+  <si>
+    <t>biological_sample quantity_units</t>
+  </si>
+  <si>
+    <t>biological_sample source</t>
+  </si>
+  <si>
+    <t>biological_sample collection_date</t>
+  </si>
+  <si>
+    <t>biological_sample conservation_conditions</t>
+  </si>
+  <si>
+    <t>biological_sample storage</t>
+  </si>
+  <si>
+    <t>biological_sample status</t>
+  </si>
+  <si>
+    <t>analytical_sample external_id</t>
+  </si>
+  <si>
+    <t>analytical_sample quantity</t>
+  </si>
+  <si>
+    <t>analytical_sample quantity_units</t>
+  </si>
+  <si>
+    <t>analytical_sample source</t>
+  </si>
+  <si>
+    <t>analytical_sample collection_date</t>
+  </si>
+  <si>
+    <t>analytical_sample conservation_conditions</t>
+  </si>
+  <si>
+    <t>analytical_sample storage</t>
+  </si>
+  <si>
+    <t>analytical_sample status</t>
+  </si>
+  <si>
     <t>timepoint</t>
   </si>
   <si>
+    <t>timepoint units</t>
+  </si>
+  <si>
+    <t>grouping1</t>
+  </si>
+  <si>
+    <t>grouping2</t>
+  </si>
+  <si>
+    <t>Body weight</t>
+  </si>
+  <si>
+    <t>Body mass index</t>
+  </si>
+  <si>
+    <t>Waist circumference</t>
+  </si>
+  <si>
+    <t>Cholesterol level</t>
+  </si>
+  <si>
+    <t>Waist/hip ratio</t>
+  </si>
+  <si>
+    <t>Tobacco smoking behavior - finding</t>
+  </si>
+  <si>
+    <t>Plasma LDL cholesterol leve</t>
+  </si>
+  <si>
+    <t>Plasma HDL cholesterol measurement</t>
+  </si>
+  <si>
+    <t>Hyperpiesis</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure</t>
+  </si>
+  <si>
+    <t>Gluten specific IgE antibody measurement (procedure)</t>
+  </si>
+  <si>
+    <t>Ordinal level of hemoglobin A1c (observable entity)</t>
+  </si>
+  <si>
     <t>h.dexa</t>
   </si>
   <si>
     <t>w.dexa</t>
   </si>
   <si>
+    <t>Body fat</t>
+  </si>
+  <si>
     <t>totalmass</t>
   </si>
   <si>
     <t>procentfat</t>
-  </si>
-  <si>
-    <t>tissue id</t>
-  </si>
-  <si>
-    <t>intervention id</t>
-  </si>
-  <si>
-    <t>disease id</t>
-  </si>
-  <si>
-    <t>timepoint units</t>
-  </si>
-  <si>
-    <t>grouping1</t>
-  </si>
-  <si>
-    <t>grouping2</t>
-  </si>
-  <si>
-    <t>analytical_sample quantity</t>
-  </si>
-  <si>
-    <t>analytical_sample source</t>
-  </si>
-  <si>
-    <t>analytical_sample collection_date</t>
-  </si>
-  <si>
-    <t>analytical_sample conservation_conditions</t>
-  </si>
-  <si>
-    <t>analytical_sample storage</t>
-  </si>
-  <si>
-    <t>analytical_sample status</t>
-  </si>
-  <si>
-    <t>biological_sample quantity</t>
-  </si>
-  <si>
-    <t>biological_sample source</t>
-  </si>
-  <si>
-    <t>biological_sample collection_date</t>
-  </si>
-  <si>
-    <t>biological_sample conservation_conditions</t>
-  </si>
-  <si>
-    <t>biological_sample storage</t>
-  </si>
-  <si>
-    <t>biological_sample status</t>
-  </si>
-  <si>
-    <t>subject external_id</t>
-  </si>
-  <si>
-    <t>biological_sample external_id</t>
-  </si>
-  <si>
-    <t>biological_sample quantity_units</t>
-  </si>
-  <si>
-    <t>analytical_sample external_id</t>
-  </si>
-  <si>
-    <t>analytical_sample quantity_units</t>
-  </si>
-  <si>
-    <t>Body weight</t>
-  </si>
-  <si>
-    <t>Body mass index</t>
-  </si>
-  <si>
-    <t>Waist circumference</t>
-  </si>
-  <si>
-    <t>Cholesterol level</t>
-  </si>
-  <si>
-    <t>Body fat</t>
-  </si>
-  <si>
-    <t>Ordinal level of hemoglobin A1c (observable entity)</t>
-  </si>
-  <si>
-    <t>Gluten specific IgE antibody measurement (procedure)</t>
-  </si>
-  <si>
-    <t>Diastolic blood pressure</t>
-  </si>
-  <si>
-    <t>Hyperpiesis</t>
-  </si>
-  <si>
-    <t>Plasma HDL cholesterol measurement</t>
-  </si>
-  <si>
-    <t>Plasma LDL cholesterol leve</t>
-  </si>
-  <si>
-    <t>Tobacco smoking behavior - finding</t>
-  </si>
-  <si>
-    <t>Waist/hip ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,23 +182,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -232,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +299,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,16 +402,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -507,46 +537,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -556,163 +547,140 @@
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="25.5" customWidth="1"/>
-    <col min="13" max="13" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report_manager/apps/templates/ClinicalData_template.xlsx
+++ b/report_manager/apps/templates/ClinicalData_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plh450/Clinical_Proteomics/CKG/clinicalknowledgegraph/report_manager/apps/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5518FD5-FC72-3449-B7A0-1257EE5F11B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25278A-3D60-2A43-B0C1-8AF73EE51018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80240" yWindow="140" windowWidth="31140" windowHeight="18140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,6 @@
     <t>subject external_id</t>
   </si>
   <si>
-    <t>tissue id</t>
-  </si>
-  <si>
-    <t>intervention id</t>
-  </si>
-  <si>
-    <t>disease id</t>
-  </si>
-  <si>
     <t>biological_sample external_id</t>
   </si>
   <si>
@@ -143,6 +134,15 @@
   </si>
   <si>
     <t>procentfat</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>disease</t>
   </si>
 </sst>
 </file>
@@ -546,13 +546,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="44" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
@@ -560,124 +599,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/report_manager/apps/templates/ClinicalData_template.xlsx
+++ b/report_manager/apps/templates/ClinicalData_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plh450/Clinical_Proteomics/CKG/clinicalknowledgegraph/report_manager/apps/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25278A-3D60-2A43-B0C1-8AF73EE51018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89E56B-D3AB-054C-989D-4A0C2E670B85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80240" yWindow="140" windowWidth="31140" windowHeight="18140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>subject external_id</t>
   </si>
@@ -85,57 +85,6 @@
     <t>grouping2</t>
   </si>
   <si>
-    <t>Body weight</t>
-  </si>
-  <si>
-    <t>Body mass index</t>
-  </si>
-  <si>
-    <t>Waist circumference</t>
-  </si>
-  <si>
-    <t>Cholesterol level</t>
-  </si>
-  <si>
-    <t>Waist/hip ratio</t>
-  </si>
-  <si>
-    <t>Tobacco smoking behavior - finding</t>
-  </si>
-  <si>
-    <t>Plasma LDL cholesterol leve</t>
-  </si>
-  <si>
-    <t>Plasma HDL cholesterol measurement</t>
-  </si>
-  <si>
-    <t>Hyperpiesis</t>
-  </si>
-  <si>
-    <t>Diastolic blood pressure</t>
-  </si>
-  <si>
-    <t>Gluten specific IgE antibody measurement (procedure)</t>
-  </si>
-  <si>
-    <t>Ordinal level of hemoglobin A1c (observable entity)</t>
-  </si>
-  <si>
-    <t>h.dexa</t>
-  </si>
-  <si>
-    <t>w.dexa</t>
-  </si>
-  <si>
-    <t>Body fat</t>
-  </si>
-  <si>
-    <t>totalmass</t>
-  </si>
-  <si>
-    <t>procentfat</t>
-  </si>
-  <si>
     <t>tissue</t>
   </si>
   <si>
@@ -143,6 +92,84 @@
   </si>
   <si>
     <t>disease</t>
+  </si>
+  <si>
+    <t>date of T2D diagnosis</t>
+  </si>
+  <si>
+    <t>Biological sex (property) (qualifier value) (734000001)</t>
+  </si>
+  <si>
+    <t>Age (102518004)</t>
+  </si>
+  <si>
+    <t>Body height (50373000)</t>
+  </si>
+  <si>
+    <t>Weight (property) (qualifier value) (726527001)</t>
+  </si>
+  <si>
+    <t>Body mass index (60621009)</t>
+  </si>
+  <si>
+    <t>Systole (111973004)</t>
+  </si>
+  <si>
+    <t>Diastole (90892000)</t>
+  </si>
+  <si>
+    <t>Waist circumference (276361009)</t>
+  </si>
+  <si>
+    <t>Drug therapy (procedure) (416608005)</t>
+  </si>
+  <si>
+    <t>Lipid-lowering therapy (134350008)</t>
+  </si>
+  <si>
+    <t>NAFLD score</t>
+  </si>
+  <si>
+    <t>Fasting blood glucose level (271062006)</t>
+  </si>
+  <si>
+    <t>platelets/liter (277200003)</t>
+  </si>
+  <si>
+    <t>Bilirubin level (302787001)</t>
+  </si>
+  <si>
+    <t>Albumin measurement (26758005)</t>
+  </si>
+  <si>
+    <t>Alanine aminotransferase measurement (34608000)</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase measurement (45896001)</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase measurement (88810008)</t>
+  </si>
+  <si>
+    <t>Gamma glutamyl transferase measurement (69480007)</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1c measurement (43396009)</t>
+  </si>
+  <si>
+    <t>Total cholesterol:HDL ratio measurement (166842003)</t>
+  </si>
+  <si>
+    <t>High density lipoprotein measurement (17888004)</t>
+  </si>
+  <si>
+    <t>Low density lipoprotein cholesterol measurement (113079009)</t>
+  </si>
+  <si>
+    <t>VLDL cholesterol measurement (104585005)</t>
+  </si>
+  <si>
+    <t>Triglycerides measurement (14740000)</t>
   </si>
 </sst>
 </file>
@@ -158,9 +185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,27 +200,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -203,9 +214,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,68 +553,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="44" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="44" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="35" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="44" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -668,56 +687,104 @@
         <v>20</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
